--- a/students.xlsx
+++ b/students.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE2"/>
+  <dimension ref="A1:AE3"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -590,9 +590,50 @@
         <v/>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Nisha Kumari</v>
+      </c>
+      <c r="B3" t="str">
+        <v>omm6049@gmail.com</v>
+      </c>
+      <c r="C3" t="str">
+        <v>R2025498249</v>
+      </c>
+      <c r="D3" t="str">
+        <v>DAV2025219651</v>
+      </c>
+      <c r="E3" t="str">
+        <v>2003-05-18</v>
+      </c>
+      <c r="F3" t="str">
+        <v>22</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Female</v>
+      </c>
+      <c r="H3" t="str">
+        <v>9973130424</v>
+      </c>
+      <c r="I3" t="str">
+        <v>Nisha@143</v>
+      </c>
+      <c r="J3" t="str">
+        <v>birth_city</v>
+      </c>
+      <c r="K3" t="str">
+        <v>Pogar</v>
+      </c>
+      <c r="L3" t="str">
+        <v/>
+      </c>
+      <c r="AD3" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AE2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AE3"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/students.xlsx
+++ b/students.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE3"/>
+  <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -492,10 +492,22 @@
         <v>selectedCourse</v>
       </c>
       <c r="AD1" t="str">
+        <v>__EMPTY</v>
+      </c>
+      <c r="AE1" t="str">
         <v>captchaInput</v>
       </c>
-      <c r="AE1" t="str">
-        <v>__EMPTY</v>
+      <c r="AF1" t="str">
+        <v>marks10</v>
+      </c>
+      <c r="AG1" t="str">
+        <v>totalMarks10</v>
+      </c>
+      <c r="AH1" t="str">
+        <v>marks12</v>
+      </c>
+      <c r="AI1" t="str">
+        <v>totalMarks12</v>
       </c>
     </row>
     <row r="2">
@@ -503,19 +515,16 @@
         <v>Raushan Kumar</v>
       </c>
       <c r="B2" t="str">
-        <v>raushan6622@gmail.com</v>
+        <v>raushan6049@gmail.com</v>
       </c>
       <c r="C2" t="str">
-        <v>12125275</v>
+        <v>R2025327801</v>
       </c>
       <c r="D2" t="str">
-        <v>DAV2025776358</v>
+        <v>DAV2025768092</v>
       </c>
       <c r="E2" t="str">
-        <v>2004-04-11</v>
-      </c>
-      <c r="F2" t="str">
-        <v>21</v>
+        <v>2004-09-11</v>
       </c>
       <c r="G2" t="str">
         <v>Male</v>
@@ -533,7 +542,7 @@
         <v>Goh</v>
       </c>
       <c r="L2" t="str">
-        <v>uploads/profile-pics/12125275.jpeg</v>
+        <v/>
       </c>
       <c r="M2" t="str">
         <v>Tara color studio</v>
@@ -563,13 +572,13 @@
         <v>House Maker</v>
       </c>
       <c r="V2" t="str">
-        <v>8809507603</v>
+        <v>8873963762</v>
       </c>
       <c r="W2" t="str">
         <v>CBSE</v>
       </c>
       <c r="X2" t="str">
-        <v>82.4</v>
+        <v>82.40</v>
       </c>
       <c r="Y2" t="str">
         <v>2020</v>
@@ -578,62 +587,33 @@
         <v>CBSE</v>
       </c>
       <c r="AA2" t="str">
-        <v>75.4</v>
+        <v>75.40</v>
       </c>
       <c r="AB2" t="str">
         <v>2022</v>
       </c>
       <c r="AC2" t="str">
-        <v>{"level":"Undergraduate","branch":"Hindi","honsSubject":"Hindi","amount":105000}</v>
+        <v>{"level":"Undergraduate","branch":"Physics, Chemistry, Mathematics","honsSubject":["Physics","Chemistry","Mathematics"],"amount":460000}</v>
       </c>
       <c r="AE2" t="str">
         <v/>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Nisha Kumari</v>
-      </c>
-      <c r="B3" t="str">
-        <v>omm6049@gmail.com</v>
-      </c>
-      <c r="C3" t="str">
-        <v>R2025498249</v>
-      </c>
-      <c r="D3" t="str">
-        <v>DAV2025219651</v>
-      </c>
-      <c r="E3" t="str">
-        <v>2003-05-18</v>
-      </c>
-      <c r="F3" t="str">
-        <v>22</v>
-      </c>
-      <c r="G3" t="str">
-        <v>Female</v>
-      </c>
-      <c r="H3" t="str">
-        <v>9973130424</v>
-      </c>
-      <c r="I3" t="str">
-        <v>Nisha@143</v>
-      </c>
-      <c r="J3" t="str">
-        <v>birth_city</v>
-      </c>
-      <c r="K3" t="str">
-        <v>Pogar</v>
-      </c>
-      <c r="L3" t="str">
-        <v/>
-      </c>
-      <c r="AD3" t="str">
-        <v/>
+      <c r="AF2" t="str">
+        <v>412</v>
+      </c>
+      <c r="AG2" t="str">
+        <v>500</v>
+      </c>
+      <c r="AH2" t="str">
+        <v>377</v>
+      </c>
+      <c r="AI2" t="str">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AE3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AI2"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -673,28 +653,28 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>12125275</v>
+        <v>R2025327801</v>
       </c>
       <c r="B2" t="str">
         <v>Raushan Kumar</v>
       </c>
       <c r="C2" t="str">
-        <v>order_RALLrXstd90xyU</v>
+        <v>order_RGm1MlkolyXliU</v>
       </c>
       <c r="D2" t="str">
-        <v>pay_RALLwUmEYlk026</v>
+        <v>pay_RGm1SBt7VQzLME</v>
       </c>
       <c r="E2">
-        <v>1050</v>
+        <v>4600</v>
       </c>
       <c r="F2" t="str">
         <v>INR</v>
       </c>
       <c r="G2" t="str">
-        <v>Undergraduate - Hindi</v>
+        <v>Undergraduate - Physics, Chemistry, Mathematics</v>
       </c>
       <c r="H2" t="str">
-        <v>2025-08-27T11:32:32.752Z</v>
+        <v>2025-09-12T17:31:53.111Z</v>
       </c>
     </row>
   </sheetData>

--- a/students.xlsx
+++ b/students.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI2"/>
+  <dimension ref="A1:AI3"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -611,9 +611,47 @@
         <v>500</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Nisha Kumari</v>
+      </c>
+      <c r="B3" t="str">
+        <v>omm6049@gmail.com</v>
+      </c>
+      <c r="C3" t="str">
+        <v>R2025853399</v>
+      </c>
+      <c r="D3" t="str">
+        <v>DAV2025871740</v>
+      </c>
+      <c r="E3" t="str">
+        <v>2003-05-18</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Female</v>
+      </c>
+      <c r="H3" t="str">
+        <v>9973130424</v>
+      </c>
+      <c r="I3" t="str">
+        <v>Nisha@143</v>
+      </c>
+      <c r="J3" t="str">
+        <v>birth_city</v>
+      </c>
+      <c r="K3" t="str">
+        <v>Pogar</v>
+      </c>
+      <c r="L3" t="str">
+        <v/>
+      </c>
+      <c r="AD3" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AI2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AI3"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/students.xlsx
+++ b/students.xlsx
@@ -492,22 +492,22 @@
         <v>selectedCourse</v>
       </c>
       <c r="AD1" t="str">
+        <v>captchaInput</v>
+      </c>
+      <c r="AE1" t="str">
+        <v>marks10</v>
+      </c>
+      <c r="AF1" t="str">
+        <v>totalMarks10</v>
+      </c>
+      <c r="AG1" t="str">
+        <v>marks12</v>
+      </c>
+      <c r="AH1" t="str">
+        <v>totalMarks12</v>
+      </c>
+      <c r="AI1" t="str">
         <v>__EMPTY</v>
-      </c>
-      <c r="AE1" t="str">
-        <v>captchaInput</v>
-      </c>
-      <c r="AF1" t="str">
-        <v>marks10</v>
-      </c>
-      <c r="AG1" t="str">
-        <v>totalMarks10</v>
-      </c>
-      <c r="AH1" t="str">
-        <v>marks12</v>
-      </c>
-      <c r="AI1" t="str">
-        <v>totalMarks12</v>
       </c>
     </row>
     <row r="2">
@@ -595,19 +595,19 @@
       <c r="AC2" t="str">
         <v>{"level":"Undergraduate","branch":"Physics, Chemistry, Mathematics","honsSubject":["Physics","Chemistry","Mathematics"],"amount":460000}</v>
       </c>
+      <c r="AD2" t="str">
+        <v/>
+      </c>
       <c r="AE2" t="str">
-        <v/>
+        <v>412</v>
       </c>
       <c r="AF2" t="str">
-        <v>412</v>
+        <v>500</v>
       </c>
       <c r="AG2" t="str">
-        <v>500</v>
+        <v>377</v>
       </c>
       <c r="AH2" t="str">
-        <v>377</v>
-      </c>
-      <c r="AI2" t="str">
         <v>500</v>
       </c>
     </row>
@@ -645,7 +645,70 @@
       <c r="L3" t="str">
         <v/>
       </c>
-      <c r="AD3" t="str">
+      <c r="M3" t="str">
+        <v>Tara color studio</v>
+      </c>
+      <c r="N3" t="str">
+        <v>B B M Gyan Ganga, Rafiganj Road</v>
+      </c>
+      <c r="O3" t="str">
+        <v>Goh</v>
+      </c>
+      <c r="P3" t="str">
+        <v>Bihar</v>
+      </c>
+      <c r="Q3" t="str">
+        <v>824203</v>
+      </c>
+      <c r="R3" t="str">
+        <v>late Ramesh Prasad</v>
+      </c>
+      <c r="S3" t="str">
+        <v>Business man</v>
+      </c>
+      <c r="T3" t="str">
+        <v>............</v>
+      </c>
+      <c r="U3" t="str">
+        <v>House Maker</v>
+      </c>
+      <c r="V3" t="str">
+        <v>8873963762</v>
+      </c>
+      <c r="W3" t="str">
+        <v>CBSE</v>
+      </c>
+      <c r="X3" t="str">
+        <v>90.80</v>
+      </c>
+      <c r="Y3" t="str">
+        <v>2020</v>
+      </c>
+      <c r="Z3" t="str">
+        <v>CBSE</v>
+      </c>
+      <c r="AA3" t="str">
+        <v>75.40</v>
+      </c>
+      <c r="AB3" t="str">
+        <v>2022</v>
+      </c>
+      <c r="AC3" t="str">
+        <v>{"level":"Undergraduate","branch":"Physics, Chemistry, Mathematics","honsSubject":["Physics","Chemistry","Mathematics"],"amount":460000}</v>
+      </c>
+      <c r="AE3" t="str">
+        <v>454</v>
+      </c>
+      <c r="AF3" t="str">
+        <v>500</v>
+      </c>
+      <c r="AG3" t="str">
+        <v>377</v>
+      </c>
+      <c r="AH3" t="str">
+        <v>500</v>
+      </c>
+      <c r="AI3" t="str">
         <v/>
       </c>
     </row>

--- a/students.xlsx
+++ b/students.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI3"/>
+  <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -495,19 +495,19 @@
         <v>captchaInput</v>
       </c>
       <c r="AE1" t="str">
+        <v>__EMPTY</v>
+      </c>
+      <c r="AF1" t="str">
         <v>marks10</v>
       </c>
-      <c r="AF1" t="str">
+      <c r="AG1" t="str">
         <v>totalMarks10</v>
       </c>
-      <c r="AG1" t="str">
+      <c r="AH1" t="str">
         <v>marks12</v>
       </c>
-      <c r="AH1" t="str">
+      <c r="AI1" t="str">
         <v>totalMarks12</v>
-      </c>
-      <c r="AI1" t="str">
-        <v>__EMPTY</v>
       </c>
     </row>
     <row r="2">
@@ -518,10 +518,10 @@
         <v>raushan6049@gmail.com</v>
       </c>
       <c r="C2" t="str">
-        <v>R2025327801</v>
+        <v>R2025310122</v>
       </c>
       <c r="D2" t="str">
-        <v>DAV2025768092</v>
+        <v>DAV2025469981</v>
       </c>
       <c r="E2" t="str">
         <v>2004-09-11</v>
@@ -533,7 +533,7 @@
         <v>8873963762</v>
       </c>
       <c r="I2" t="str">
-        <v>Raushan@143</v>
+        <v>$2b$10$Ef09tsb2zmWcsEpAH/NqSeyMzeSciJ9l4KsvT5lzLb.uYTzj8BrLO</v>
       </c>
       <c r="J2" t="str">
         <v>birth_city</v>
@@ -542,7 +542,7 @@
         <v>Goh</v>
       </c>
       <c r="L2" t="str">
-        <v/>
+        <v>uploads/profile-pics/R2025310122.jpeg</v>
       </c>
       <c r="M2" t="str">
         <v>Tara color studio</v>
@@ -572,7 +572,7 @@
         <v>House Maker</v>
       </c>
       <c r="V2" t="str">
-        <v>8873963762</v>
+        <v>8809507603</v>
       </c>
       <c r="W2" t="str">
         <v>CBSE</v>
@@ -593,128 +593,27 @@
         <v>2022</v>
       </c>
       <c r="AC2" t="str">
-        <v>{"level":"Undergraduate","branch":"Physics, Chemistry, Mathematics","honsSubject":["Physics","Chemistry","Mathematics"],"amount":460000}</v>
-      </c>
-      <c r="AD2" t="str">
+        <v>{"level":"Undergraduate","branch":"Physics, Chemistry, Mathematics","honsSubject":["Physics","Chemistry","Mathematics"],"amount":460000,"paymentStatus":"paid"}</v>
+      </c>
+      <c r="AE2" t="str">
         <v/>
       </c>
-      <c r="AE2" t="str">
+      <c r="AF2" t="str">
         <v>412</v>
       </c>
-      <c r="AF2" t="str">
+      <c r="AG2" t="str">
         <v>500</v>
       </c>
-      <c r="AG2" t="str">
+      <c r="AH2" t="str">
         <v>377</v>
       </c>
-      <c r="AH2" t="str">
+      <c r="AI2" t="str">
         <v>500</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Nisha Kumari</v>
-      </c>
-      <c r="B3" t="str">
-        <v>omm6049@gmail.com</v>
-      </c>
-      <c r="C3" t="str">
-        <v>R2025853399</v>
-      </c>
-      <c r="D3" t="str">
-        <v>DAV2025871740</v>
-      </c>
-      <c r="E3" t="str">
-        <v>2003-05-18</v>
-      </c>
-      <c r="G3" t="str">
-        <v>Female</v>
-      </c>
-      <c r="H3" t="str">
-        <v>9973130424</v>
-      </c>
-      <c r="I3" t="str">
-        <v>Nisha@143</v>
-      </c>
-      <c r="J3" t="str">
-        <v>birth_city</v>
-      </c>
-      <c r="K3" t="str">
-        <v>Pogar</v>
-      </c>
-      <c r="L3" t="str">
-        <v/>
-      </c>
-      <c r="M3" t="str">
-        <v>Tara color studio</v>
-      </c>
-      <c r="N3" t="str">
-        <v>B B M Gyan Ganga, Rafiganj Road</v>
-      </c>
-      <c r="O3" t="str">
-        <v>Goh</v>
-      </c>
-      <c r="P3" t="str">
-        <v>Bihar</v>
-      </c>
-      <c r="Q3" t="str">
-        <v>824203</v>
-      </c>
-      <c r="R3" t="str">
-        <v>late Ramesh Prasad</v>
-      </c>
-      <c r="S3" t="str">
-        <v>Business man</v>
-      </c>
-      <c r="T3" t="str">
-        <v>............</v>
-      </c>
-      <c r="U3" t="str">
-        <v>House Maker</v>
-      </c>
-      <c r="V3" t="str">
-        <v>8873963762</v>
-      </c>
-      <c r="W3" t="str">
-        <v>CBSE</v>
-      </c>
-      <c r="X3" t="str">
-        <v>90.80</v>
-      </c>
-      <c r="Y3" t="str">
-        <v>2020</v>
-      </c>
-      <c r="Z3" t="str">
-        <v>CBSE</v>
-      </c>
-      <c r="AA3" t="str">
-        <v>75.40</v>
-      </c>
-      <c r="AB3" t="str">
-        <v>2022</v>
-      </c>
-      <c r="AC3" t="str">
-        <v>{"level":"Undergraduate","branch":"Physics, Chemistry, Mathematics","honsSubject":["Physics","Chemistry","Mathematics"],"amount":460000}</v>
-      </c>
-      <c r="AE3" t="str">
-        <v>454</v>
-      </c>
-      <c r="AF3" t="str">
-        <v>500</v>
-      </c>
-      <c r="AG3" t="str">
-        <v>377</v>
-      </c>
-      <c r="AH3" t="str">
-        <v>500</v>
-      </c>
-      <c r="AI3" t="str">
-        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AI3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AI2"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -754,16 +653,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>R2025327801</v>
+        <v>R2025310122</v>
       </c>
       <c r="B2" t="str">
         <v>Raushan Kumar</v>
       </c>
       <c r="C2" t="str">
-        <v>order_RGm1MlkolyXliU</v>
+        <v>order_RH1KsspWRTogh4</v>
       </c>
       <c r="D2" t="str">
-        <v>pay_RGm1SBt7VQzLME</v>
+        <v>pay_RH1KxVta0wMJ6b</v>
       </c>
       <c r="E2">
         <v>4600</v>
@@ -775,7 +674,7 @@
         <v>Undergraduate - Physics, Chemistry, Mathematics</v>
       </c>
       <c r="H2" t="str">
-        <v>2025-09-12T17:31:53.111Z</v>
+        <v>2025-09-13T08:30:43.981Z</v>
       </c>
     </row>
   </sheetData>

--- a/students.xlsx
+++ b/students.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI2"/>
+  <dimension ref="A1:AH2"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -492,21 +492,18 @@
         <v>selectedCourse</v>
       </c>
       <c r="AD1" t="str">
-        <v>captchaInput</v>
+        <v>__EMPTY</v>
       </c>
       <c r="AE1" t="str">
-        <v>__EMPTY</v>
+        <v>marks10</v>
       </c>
       <c r="AF1" t="str">
-        <v>marks10</v>
+        <v>totalMarks10</v>
       </c>
       <c r="AG1" t="str">
-        <v>totalMarks10</v>
+        <v>marks12</v>
       </c>
       <c r="AH1" t="str">
-        <v>marks12</v>
-      </c>
-      <c r="AI1" t="str">
         <v>totalMarks12</v>
       </c>
     </row>
@@ -518,10 +515,10 @@
         <v>raushan6049@gmail.com</v>
       </c>
       <c r="C2" t="str">
-        <v>R2025310122</v>
+        <v>R2025780510</v>
       </c>
       <c r="D2" t="str">
-        <v>DAV2025469981</v>
+        <v>DAV2025100771</v>
       </c>
       <c r="E2" t="str">
         <v>2004-09-11</v>
@@ -533,7 +530,7 @@
         <v>8873963762</v>
       </c>
       <c r="I2" t="str">
-        <v>$2b$10$Ef09tsb2zmWcsEpAH/NqSeyMzeSciJ9l4KsvT5lzLb.uYTzj8BrLO</v>
+        <v>$2b$10$cIR85SUMrTqug3kbnRZOW.TgF4Vt4TsSTdtsAWrUAT5cd1xCFAW1y</v>
       </c>
       <c r="J2" t="str">
         <v>birth_city</v>
@@ -542,7 +539,7 @@
         <v>Goh</v>
       </c>
       <c r="L2" t="str">
-        <v>uploads/profile-pics/R2025310122.jpeg</v>
+        <v/>
       </c>
       <c r="M2" t="str">
         <v>Tara color studio</v>
@@ -595,25 +592,25 @@
       <c r="AC2" t="str">
         <v>{"level":"Undergraduate","branch":"Physics, Chemistry, Mathematics","honsSubject":["Physics","Chemistry","Mathematics"],"amount":460000,"paymentStatus":"paid"}</v>
       </c>
+      <c r="AD2" t="str">
+        <v/>
+      </c>
       <c r="AE2" t="str">
-        <v/>
+        <v>412</v>
       </c>
       <c r="AF2" t="str">
-        <v>412</v>
+        <v>500</v>
       </c>
       <c r="AG2" t="str">
-        <v>500</v>
+        <v>377</v>
       </c>
       <c r="AH2" t="str">
-        <v>377</v>
-      </c>
-      <c r="AI2" t="str">
         <v>500</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AI2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AH2"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -653,16 +650,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>R2025310122</v>
+        <v>R2025780510</v>
       </c>
       <c r="B2" t="str">
         <v>Raushan Kumar</v>
       </c>
       <c r="C2" t="str">
-        <v>order_RH1KsspWRTogh4</v>
+        <v>order_RH4fsY6YRqgDh9</v>
       </c>
       <c r="D2" t="str">
-        <v>pay_RH1KxVta0wMJ6b</v>
+        <v>pay_RH4g1uO0TT1pcO</v>
       </c>
       <c r="E2">
         <v>4600</v>
@@ -674,7 +671,7 @@
         <v>Undergraduate - Physics, Chemistry, Mathematics</v>
       </c>
       <c r="H2" t="str">
-        <v>2025-09-13T08:30:43.981Z</v>
+        <v>2025-09-13T11:50:15.706Z</v>
       </c>
     </row>
   </sheetData>

--- a/students.xlsx
+++ b/students.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH2"/>
+  <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -492,18 +492,21 @@
         <v>selectedCourse</v>
       </c>
       <c r="AD1" t="str">
+        <v>captchaInput</v>
+      </c>
+      <c r="AE1" t="str">
         <v>__EMPTY</v>
       </c>
-      <c r="AE1" t="str">
+      <c r="AF1" t="str">
         <v>marks10</v>
       </c>
-      <c r="AF1" t="str">
+      <c r="AG1" t="str">
         <v>totalMarks10</v>
       </c>
-      <c r="AG1" t="str">
+      <c r="AH1" t="str">
         <v>marks12</v>
       </c>
-      <c r="AH1" t="str">
+      <c r="AI1" t="str">
         <v>totalMarks12</v>
       </c>
     </row>
@@ -515,10 +518,10 @@
         <v>raushan6049@gmail.com</v>
       </c>
       <c r="C2" t="str">
-        <v>R2025780510</v>
+        <v>R2025869401</v>
       </c>
       <c r="D2" t="str">
-        <v>DAV2025100771</v>
+        <v>DAV2025348266</v>
       </c>
       <c r="E2" t="str">
         <v>2004-09-11</v>
@@ -527,10 +530,10 @@
         <v>Male</v>
       </c>
       <c r="H2" t="str">
-        <v>8873963762</v>
+        <v>7983257106</v>
       </c>
       <c r="I2" t="str">
-        <v>$2b$10$cIR85SUMrTqug3kbnRZOW.TgF4Vt4TsSTdtsAWrUAT5cd1xCFAW1y</v>
+        <v>$2b$10$sK.5h87SCKa3WOUcRdnWEuB3EwUekQV66Cx1pNrsttYFkt2dYvL1G</v>
       </c>
       <c r="J2" t="str">
         <v>birth_city</v>
@@ -569,7 +572,7 @@
         <v>House Maker</v>
       </c>
       <c r="V2" t="str">
-        <v>8809507603</v>
+        <v>8873963762</v>
       </c>
       <c r="W2" t="str">
         <v>CBSE</v>
@@ -592,25 +595,25 @@
       <c r="AC2" t="str">
         <v>{"level":"Undergraduate","branch":"Physics, Chemistry, Mathematics","honsSubject":["Physics","Chemistry","Mathematics"],"amount":460000,"paymentStatus":"paid"}</v>
       </c>
-      <c r="AD2" t="str">
+      <c r="AE2" t="str">
         <v/>
       </c>
-      <c r="AE2" t="str">
+      <c r="AF2" t="str">
         <v>412</v>
       </c>
-      <c r="AF2" t="str">
+      <c r="AG2" t="str">
         <v>500</v>
       </c>
-      <c r="AG2" t="str">
+      <c r="AH2" t="str">
         <v>377</v>
       </c>
-      <c r="AH2" t="str">
+      <c r="AI2" t="str">
         <v>500</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AH2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AI2"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -650,16 +653,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>R2025780510</v>
+        <v>R2025869401</v>
       </c>
       <c r="B2" t="str">
         <v>Raushan Kumar</v>
       </c>
       <c r="C2" t="str">
-        <v>order_RH4fsY6YRqgDh9</v>
+        <v>order_RHCWcjZAjwEaKX</v>
       </c>
       <c r="D2" t="str">
-        <v>pay_RH4g1uO0TT1pcO</v>
+        <v>pay_RHCWjbguZVGsGh</v>
       </c>
       <c r="E2">
         <v>4600</v>
@@ -671,7 +674,7 @@
         <v>Undergraduate - Physics, Chemistry, Mathematics</v>
       </c>
       <c r="H2" t="str">
-        <v>2025-09-13T11:50:15.706Z</v>
+        <v>2025-09-13T19:27:31.958Z</v>
       </c>
     </row>
   </sheetData>
